--- a/docs/excel/必要機能一覧(Zexy).xlsx
+++ b/docs/excel/必要機能一覧(Zexy).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24660" windowHeight="14850" tabRatio="927" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="24660" windowHeight="14850" tabRatio="927" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Zexy結果" sheetId="5" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="【フェア変更】質問設定変更" sheetId="14" r:id="rId13"/>
     <sheet name="【フェア変更】リクエスト切替変更" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="591">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -3684,10 +3684,6 @@
   </si>
   <si>
     <t>requestChangeRemFrameCnt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>requestChangeConfigKbn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4039,6 +4035,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4051,14 +4050,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4072,22 +4083,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4108,20 +4107,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4443,16 +4439,16 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="2" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2" t="s">
         <v>518</v>
       </c>
@@ -4461,7 +4457,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2" t="s">
         <v>523</v>
       </c>
@@ -4470,7 +4466,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="15" t="s">
         <v>526</v>
       </c>
@@ -4564,11 +4560,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -4599,11 +4595,11 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -4629,10 +4625,10 @@
       <c r="E4" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="8" t="s">
         <v>564</v>
       </c>
@@ -4656,10 +4652,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="2" t="s">
         <v>269</v>
       </c>
@@ -4686,11 +4682,11 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="2" t="s">
         <v>386</v>
       </c>
@@ -4713,11 +4709,11 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="2" t="s">
         <v>386</v>
       </c>
@@ -4740,11 +4736,11 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="2" t="s">
         <v>269</v>
       </c>
@@ -4770,10 +4766,10 @@
       <c r="E9" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="b">
         <v>1</v>
@@ -4796,11 +4792,11 @@
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="49" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="b">
         <v>1</v>
@@ -4823,11 +4819,11 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="b">
         <v>1</v>
@@ -4850,11 +4846,11 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="8" t="s">
         <v>409</v>
       </c>
@@ -4879,11 +4875,11 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="2" t="s">
         <v>269</v>
       </c>
@@ -4909,10 +4905,10 @@
       <c r="E14" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -4933,11 +4929,11 @@
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="49" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -4958,11 +4954,11 @@
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="49" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -4983,11 +4979,11 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="8" t="s">
         <v>397</v>
       </c>
@@ -5010,11 +5006,11 @@
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="2" t="s">
         <v>269</v>
       </c>
@@ -5040,10 +5036,10 @@
       <c r="E19" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="2" t="s">
         <v>386</v>
       </c>
@@ -5066,11 +5062,11 @@
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="31"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="2" t="s">
         <v>386</v>
       </c>
@@ -5093,9 +5089,9 @@
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="2" t="s">
         <v>360</v>
       </c>
@@ -5118,9 +5114,9 @@
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="2" t="s">
         <v>360</v>
       </c>
@@ -5143,9 +5139,9 @@
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="27"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="2" t="s">
         <v>360</v>
       </c>
@@ -5168,9 +5164,9 @@
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="27"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="2" t="s">
         <v>360</v>
       </c>
@@ -5193,9 +5189,9 @@
       <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="27"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="2" t="s">
         <v>360</v>
       </c>
@@ -5218,9 +5214,9 @@
       <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="27"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="2" t="s">
         <v>360</v>
       </c>
@@ -5243,9 +5239,9 @@
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="27"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="2" t="s">
         <v>360</v>
       </c>
@@ -5262,6 +5258,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
@@ -5272,24 +5286,6 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5336,11 +5332,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -5371,11 +5367,11 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -5401,10 +5397,10 @@
       <c r="E4" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="15" t="s">
         <v>386</v>
       </c>
@@ -5427,11 +5423,11 @@
       <c r="D5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="49" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="15" t="s">
         <v>386</v>
       </c>
@@ -5454,11 +5450,11 @@
       <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="15" t="s">
         <v>386</v>
       </c>
@@ -5527,11 +5523,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -5562,11 +5558,11 @@
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -5589,11 +5585,11 @@
       <c r="D4" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="8" t="s">
         <v>381</v>
       </c>
@@ -5618,7 +5614,7 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="18" t="s">
         <v>379</v>
       </c>
@@ -5647,8 +5643,8 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="16" t="s">
         <v>376</v>
       </c>
@@ -5674,8 +5670,8 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="16" t="s">
         <v>373</v>
       </c>
@@ -5746,11 +5742,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -5781,11 +5777,11 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -5811,10 +5807,10 @@
       <c r="E4" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="15" t="s">
         <v>53</v>
       </c>
@@ -5838,10 +5834,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="2" t="s">
         <v>246</v>
       </c>
@@ -5908,11 +5904,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -5943,11 +5939,11 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -5970,13 +5966,13 @@
       <c r="D4" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>573</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="8" t="s">
         <v>571</v>
       </c>
@@ -5991,7 +5987,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>578</v>
@@ -6000,10 +5996,10 @@
         <v>579</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>574</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="2" t="s">
         <v>577</v>
       </c>
@@ -6165,9 +6161,9 @@
   <dimension ref="A2:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B47" sqref="B47"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6199,11 +6195,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -6234,11 +6230,11 @@
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -6261,9 +6257,9 @@
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="27"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="2" t="s">
         <v>253</v>
       </c>
@@ -6286,9 +6282,9 @@
       <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="27"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="2" t="s">
         <v>251</v>
       </c>
@@ -6311,11 +6307,11 @@
       <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="8" t="s">
         <v>249</v>
       </c>
@@ -6340,11 +6336,11 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="2" t="s">
         <v>246</v>
       </c>
@@ -6367,11 +6363,11 @@
       <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="2" t="s">
         <v>190</v>
       </c>
@@ -6396,11 +6392,11 @@
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="2" t="s">
         <v>237</v>
       </c>
@@ -6425,11 +6421,11 @@
       <c r="D10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="2" t="s">
         <v>190</v>
       </c>
@@ -6454,11 +6450,11 @@
       <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="2" t="s">
         <v>237</v>
       </c>
@@ -6483,11 +6479,11 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="2" t="s">
         <v>446</v>
       </c>
@@ -6510,11 +6506,11 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="8" t="s">
         <v>231</v>
       </c>
@@ -6539,11 +6535,11 @@
       <c r="D14" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5"/>
       <c r="J14" s="2" t="s">
@@ -6566,11 +6562,11 @@
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="2" t="s">
         <v>225</v>
       </c>
@@ -6595,11 +6591,11 @@
       <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="2" t="s">
         <v>222</v>
       </c>
@@ -6624,11 +6620,11 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="8" t="s">
         <v>219</v>
       </c>
@@ -6651,11 +6647,11 @@
       <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="2" t="s">
         <v>197</v>
       </c>
@@ -6682,8 +6678,8 @@
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="2" t="s">
         <v>195</v>
       </c>
@@ -6713,8 +6709,8 @@
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="2" t="s">
         <v>193</v>
       </c>
@@ -6744,8 +6740,8 @@
       <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="2" t="s">
         <v>191</v>
       </c>
@@ -6775,8 +6771,8 @@
       <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="2" t="s">
         <v>188</v>
       </c>
@@ -6806,11 +6802,11 @@
       <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="2" t="s">
         <v>197</v>
       </c>
@@ -6837,8 +6833,8 @@
       <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="2" t="s">
         <v>195</v>
       </c>
@@ -6868,8 +6864,8 @@
       <c r="D25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="2" t="s">
         <v>193</v>
       </c>
@@ -6899,8 +6895,8 @@
       <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="2" t="s">
         <v>191</v>
       </c>
@@ -6930,8 +6926,8 @@
       <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="2" t="s">
         <v>188</v>
       </c>
@@ -6961,11 +6957,11 @@
       <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="2" t="s">
         <v>197</v>
       </c>
@@ -6992,8 +6988,8 @@
       <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="2" t="s">
         <v>195</v>
       </c>
@@ -7023,8 +7019,8 @@
       <c r="D30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="2" t="s">
         <v>193</v>
       </c>
@@ -7054,8 +7050,8 @@
       <c r="D31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="2" t="s">
         <v>191</v>
       </c>
@@ -7085,8 +7081,8 @@
       <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="2" t="s">
         <v>188</v>
       </c>
@@ -7116,11 +7112,11 @@
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="25" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="2" t="s">
         <v>197</v>
       </c>
@@ -7147,8 +7143,8 @@
       <c r="D34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="2" t="s">
         <v>195</v>
       </c>
@@ -7178,8 +7174,8 @@
       <c r="D35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="2" t="s">
         <v>193</v>
       </c>
@@ -7209,8 +7205,8 @@
       <c r="D36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="2" t="s">
         <v>191</v>
       </c>
@@ -7240,8 +7236,8 @@
       <c r="D37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="2" t="s">
         <v>188</v>
       </c>
@@ -7271,11 +7267,11 @@
       <c r="D38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="25" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="2" t="s">
         <v>197</v>
       </c>
@@ -7302,8 +7298,8 @@
       <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="2" t="s">
         <v>195</v>
       </c>
@@ -7333,8 +7329,8 @@
       <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="2" t="s">
         <v>193</v>
       </c>
@@ -7364,8 +7360,8 @@
       <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="2" t="s">
         <v>191</v>
       </c>
@@ -7395,8 +7391,8 @@
       <c r="D42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="2" t="s">
         <v>188</v>
       </c>
@@ -7426,11 +7422,11 @@
       <c r="D43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="27"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="8" t="s">
         <v>184</v>
       </c>
@@ -7457,7 +7453,7 @@
       <c r="D44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="2" t="s">
         <v>49</v>
       </c>
@@ -7486,7 +7482,7 @@
       <c r="D45" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="2" t="s">
         <v>178</v>
       </c>
@@ -7515,7 +7511,7 @@
       <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="29"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="2" t="s">
         <v>175</v>
       </c>
@@ -7542,13 +7538,13 @@
       <c r="D47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="31"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="10" t="s">
         <v>171</v>
       </c>
@@ -7571,8 +7567,8 @@
       <c r="D48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="32"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="2" t="s">
         <v>49</v>
       </c>
@@ -7604,8 +7600,8 @@
       <c r="D49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="32"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="2" t="s">
         <v>44</v>
       </c>
@@ -7635,8 +7631,8 @@
       <c r="D50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="32"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="2" t="s">
         <v>39</v>
       </c>
@@ -7666,8 +7662,8 @@
       <c r="D51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="32"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="2" t="s">
         <v>34</v>
       </c>
@@ -7695,8 +7691,8 @@
       <c r="D52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="32"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="2" t="s">
         <v>29</v>
       </c>
@@ -7726,8 +7722,8 @@
       <c r="D53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="38"/>
       <c r="G53" s="2" t="s">
         <v>22</v>
       </c>
@@ -7757,11 +7753,11 @@
       <c r="D54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="30" t="s">
+      <c r="E54" s="34"/>
+      <c r="F54" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="10" t="s">
         <v>159</v>
       </c>
@@ -7784,8 +7780,8 @@
       <c r="D55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="32"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="2" t="s">
         <v>49</v>
       </c>
@@ -7817,8 +7813,8 @@
       <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="32"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="2" t="s">
         <v>44</v>
       </c>
@@ -7848,8 +7844,8 @@
       <c r="D57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="2" t="s">
         <v>39</v>
       </c>
@@ -7879,8 +7875,8 @@
       <c r="D58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="32"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="37"/>
       <c r="G58" s="2" t="s">
         <v>34</v>
       </c>
@@ -7908,8 +7904,8 @@
       <c r="D59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="32"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="2" t="s">
         <v>29</v>
       </c>
@@ -7939,8 +7935,8 @@
       <c r="D60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="33"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="2" t="s">
         <v>22</v>
       </c>
@@ -7970,11 +7966,11 @@
       <c r="D61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="30" t="s">
+      <c r="E61" s="34"/>
+      <c r="F61" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G61" s="31"/>
+      <c r="G61" s="36"/>
       <c r="H61" s="10" t="s">
         <v>147</v>
       </c>
@@ -7997,8 +7993,8 @@
       <c r="D62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="32"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="37"/>
       <c r="G62" s="2" t="s">
         <v>49</v>
       </c>
@@ -8030,8 +8026,8 @@
       <c r="D63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="32"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="37"/>
       <c r="G63" s="2" t="s">
         <v>44</v>
       </c>
@@ -8061,8 +8057,8 @@
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="32"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="37"/>
       <c r="G64" s="2" t="s">
         <v>39</v>
       </c>
@@ -8092,8 +8088,8 @@
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="32"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="37"/>
       <c r="G65" s="2" t="s">
         <v>34</v>
       </c>
@@ -8121,8 +8117,8 @@
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="32"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="37"/>
       <c r="G66" s="2" t="s">
         <v>29</v>
       </c>
@@ -8152,8 +8148,8 @@
       <c r="D67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="33"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="38"/>
       <c r="G67" s="2" t="s">
         <v>22</v>
       </c>
@@ -8183,11 +8179,11 @@
       <c r="D68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="30" t="s">
+      <c r="E68" s="34"/>
+      <c r="F68" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G68" s="31"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="10" t="s">
         <v>135</v>
       </c>
@@ -8210,8 +8206,8 @@
       <c r="D69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="32"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="37"/>
       <c r="G69" s="2" t="s">
         <v>49</v>
       </c>
@@ -8243,8 +8239,8 @@
       <c r="D70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="32"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="37"/>
       <c r="G70" s="2" t="s">
         <v>44</v>
       </c>
@@ -8274,8 +8270,8 @@
       <c r="D71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="32"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="37"/>
       <c r="G71" s="2" t="s">
         <v>39</v>
       </c>
@@ -8305,8 +8301,8 @@
       <c r="D72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="32"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="2" t="s">
         <v>34</v>
       </c>
@@ -8334,8 +8330,8 @@
       <c r="D73" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="32"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="2" t="s">
         <v>29</v>
       </c>
@@ -8365,8 +8361,8 @@
       <c r="D74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="33"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="38"/>
       <c r="G74" s="2" t="s">
         <v>22</v>
       </c>
@@ -8396,11 +8392,11 @@
       <c r="D75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="30" t="s">
+      <c r="E75" s="34"/>
+      <c r="F75" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="G75" s="31"/>
+      <c r="G75" s="36"/>
       <c r="H75" s="10" t="s">
         <v>120</v>
       </c>
@@ -8423,8 +8419,8 @@
       <c r="D76" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="36"/>
-      <c r="F76" s="32"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="37"/>
       <c r="G76" s="2" t="s">
         <v>49</v>
       </c>
@@ -8456,8 +8452,8 @@
       <c r="D77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="32"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="37"/>
       <c r="G77" s="2" t="s">
         <v>44</v>
       </c>
@@ -8487,8 +8483,8 @@
       <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="32"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="37"/>
       <c r="G78" s="2" t="s">
         <v>39</v>
       </c>
@@ -8518,8 +8514,8 @@
       <c r="D79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="32"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="37"/>
       <c r="G79" s="2" t="s">
         <v>34</v>
       </c>
@@ -8547,8 +8543,8 @@
       <c r="D80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="32"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="37"/>
       <c r="G80" s="2" t="s">
         <v>29</v>
       </c>
@@ -8578,8 +8574,8 @@
       <c r="D81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="36"/>
-      <c r="F81" s="33"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="38"/>
       <c r="G81" s="2" t="s">
         <v>22</v>
       </c>
@@ -8609,11 +8605,11 @@
       <c r="D82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="36"/>
-      <c r="F82" s="30" t="s">
+      <c r="E82" s="34"/>
+      <c r="F82" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="G82" s="31"/>
+      <c r="G82" s="36"/>
       <c r="H82" s="10" t="s">
         <v>108</v>
       </c>
@@ -8636,8 +8632,8 @@
       <c r="D83" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="36"/>
-      <c r="F83" s="32"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="37"/>
       <c r="G83" s="2" t="s">
         <v>49</v>
       </c>
@@ -8669,8 +8665,8 @@
       <c r="D84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="32"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="37"/>
       <c r="G84" s="2" t="s">
         <v>44</v>
       </c>
@@ -8700,8 +8696,8 @@
       <c r="D85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="32"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="37"/>
       <c r="G85" s="2" t="s">
         <v>39</v>
       </c>
@@ -8731,8 +8727,8 @@
       <c r="D86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="32"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="37"/>
       <c r="G86" s="2" t="s">
         <v>34</v>
       </c>
@@ -8760,8 +8756,8 @@
       <c r="D87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="32"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="37"/>
       <c r="G87" s="2" t="s">
         <v>29</v>
       </c>
@@ -8791,8 +8787,8 @@
       <c r="D88" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="33"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="38"/>
       <c r="G88" s="2" t="s">
         <v>22</v>
       </c>
@@ -8822,11 +8818,11 @@
       <c r="D89" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E89" s="36"/>
-      <c r="F89" s="30" t="s">
+      <c r="E89" s="34"/>
+      <c r="F89" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="31"/>
+      <c r="G89" s="36"/>
       <c r="H89" s="10" t="s">
         <v>96</v>
       </c>
@@ -8849,8 +8845,8 @@
       <c r="D90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="32"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="37"/>
       <c r="G90" s="2" t="s">
         <v>49</v>
       </c>
@@ -8882,8 +8878,8 @@
       <c r="D91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="36"/>
-      <c r="F91" s="32"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="37"/>
       <c r="G91" s="2" t="s">
         <v>44</v>
       </c>
@@ -8913,8 +8909,8 @@
       <c r="D92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="32"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="37"/>
       <c r="G92" s="2" t="s">
         <v>39</v>
       </c>
@@ -8944,8 +8940,8 @@
       <c r="D93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="32"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="37"/>
       <c r="G93" s="2" t="s">
         <v>34</v>
       </c>
@@ -8973,8 +8969,8 @@
       <c r="D94" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="36"/>
-      <c r="F94" s="32"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="37"/>
       <c r="G94" s="2" t="s">
         <v>29</v>
       </c>
@@ -9004,8 +9000,8 @@
       <c r="D95" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="36"/>
-      <c r="F95" s="33"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="38"/>
       <c r="G95" s="2" t="s">
         <v>22</v>
       </c>
@@ -9035,11 +9031,11 @@
       <c r="D96" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="30" t="s">
+      <c r="E96" s="34"/>
+      <c r="F96" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="G96" s="31"/>
+      <c r="G96" s="36"/>
       <c r="H96" s="10" t="s">
         <v>84</v>
       </c>
@@ -9062,8 +9058,8 @@
       <c r="D97" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="32"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="37"/>
       <c r="G97" s="2" t="s">
         <v>49</v>
       </c>
@@ -9095,8 +9091,8 @@
       <c r="D98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="32"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="37"/>
       <c r="G98" s="2" t="s">
         <v>44</v>
       </c>
@@ -9126,8 +9122,8 @@
       <c r="D99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="32"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="37"/>
       <c r="G99" s="2" t="s">
         <v>39</v>
       </c>
@@ -9157,8 +9153,8 @@
       <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="32"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="37"/>
       <c r="G100" s="2" t="s">
         <v>34</v>
       </c>
@@ -9186,8 +9182,8 @@
       <c r="D101" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="32"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="37"/>
       <c r="G101" s="2" t="s">
         <v>29</v>
       </c>
@@ -9217,8 +9213,8 @@
       <c r="D102" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="33"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="38"/>
       <c r="G102" s="2" t="s">
         <v>22</v>
       </c>
@@ -9248,11 +9244,11 @@
       <c r="D103" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="25" t="s">
+      <c r="E103" s="34"/>
+      <c r="F103" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="27"/>
+      <c r="G103" s="33"/>
       <c r="H103" s="10" t="s">
         <v>72</v>
       </c>
@@ -9275,8 +9271,8 @@
       <c r="D104" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="28"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="39"/>
       <c r="G104" s="2" t="s">
         <v>71</v>
       </c>
@@ -9304,8 +9300,8 @@
       <c r="D105" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E105" s="36"/>
-      <c r="F105" s="28"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="39"/>
       <c r="G105" s="2" t="s">
         <v>49</v>
       </c>
@@ -9337,8 +9333,8 @@
       <c r="D106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="36"/>
-      <c r="F106" s="28"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="39"/>
       <c r="G106" s="2" t="s">
         <v>44</v>
       </c>
@@ -9368,8 +9364,8 @@
       <c r="D107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="36"/>
-      <c r="F107" s="28"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="39"/>
       <c r="G107" s="2" t="s">
         <v>39</v>
       </c>
@@ -9399,8 +9395,8 @@
       <c r="D108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="28"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="39"/>
       <c r="G108" s="2" t="s">
         <v>34</v>
       </c>
@@ -9428,8 +9424,8 @@
       <c r="D109" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="36"/>
-      <c r="F109" s="28"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="39"/>
       <c r="G109" s="2" t="s">
         <v>29</v>
       </c>
@@ -9459,8 +9455,8 @@
       <c r="D110" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="29"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="40"/>
       <c r="G110" s="2" t="s">
         <v>22</v>
       </c>
@@ -9490,11 +9486,11 @@
       <c r="D111" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="34" t="s">
+      <c r="E111" s="34"/>
+      <c r="F111" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G111" s="27"/>
+      <c r="G111" s="33"/>
       <c r="H111" s="10" t="s">
         <v>57</v>
       </c>
@@ -9517,8 +9513,8 @@
       <c r="D112" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="36"/>
-      <c r="F112" s="28"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="39"/>
       <c r="G112" s="2" t="s">
         <v>54</v>
       </c>
@@ -9546,8 +9542,8 @@
       <c r="D113" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="28"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="39"/>
       <c r="G113" s="2" t="s">
         <v>49</v>
       </c>
@@ -9579,8 +9575,8 @@
       <c r="D114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="36"/>
-      <c r="F114" s="28"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="39"/>
       <c r="G114" s="2" t="s">
         <v>44</v>
       </c>
@@ -9610,8 +9606,8 @@
       <c r="D115" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E115" s="36"/>
-      <c r="F115" s="28"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="39"/>
       <c r="G115" s="2" t="s">
         <v>39</v>
       </c>
@@ -9641,8 +9637,8 @@
       <c r="D116" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E116" s="36"/>
-      <c r="F116" s="28"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="39"/>
       <c r="G116" s="2" t="s">
         <v>34</v>
       </c>
@@ -9670,8 +9666,8 @@
       <c r="D117" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="36"/>
-      <c r="F117" s="28"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="39"/>
       <c r="G117" s="2" t="s">
         <v>29</v>
       </c>
@@ -9701,8 +9697,8 @@
       <c r="D118" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E118" s="36"/>
-      <c r="F118" s="29"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="40"/>
       <c r="G118" s="2" t="s">
         <v>22</v>
       </c>
@@ -9745,19 +9741,20 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E47:E118"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:F81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:F32"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
@@ -9774,11 +9771,13 @@
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="E18:E42"/>
     <mergeCell ref="F89:G89"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:F81"/>
-    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="E47:E118"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:F67"/>
     <mergeCell ref="F83:F88"/>
     <mergeCell ref="F96:G96"/>
     <mergeCell ref="F97:F102"/>
@@ -9786,15 +9785,12 @@
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="F103:G103"/>
     <mergeCell ref="F104:F110"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9840,11 +9836,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -9875,11 +9871,11 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -9904,9 +9900,9 @@
       <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="27"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="2" t="s">
         <v>251</v>
       </c>
@@ -9929,10 +9925,10 @@
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>354</v>
@@ -9956,7 +9952,7 @@
       <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="2" t="s">
         <v>49</v>
       </c>
@@ -9985,7 +9981,7 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
@@ -10014,7 +10010,7 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10043,7 +10039,7 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
@@ -10072,7 +10068,7 @@
       <c r="D10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
@@ -10101,7 +10097,7 @@
       <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
@@ -10130,8 +10126,8 @@
       <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="40" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G12" s="21" t="s">
@@ -10161,8 +10157,8 @@
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="21" t="s">
         <v>275</v>
       </c>
@@ -10190,8 +10186,8 @@
       <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="21" t="s">
         <v>274</v>
       </c>
@@ -10219,8 +10215,8 @@
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="21" t="s">
         <v>272</v>
       </c>
@@ -10248,8 +10244,8 @@
       <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="21" t="s">
         <v>270</v>
       </c>
@@ -10277,8 +10273,8 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="21" t="s">
         <v>458</v>
       </c>
@@ -10297,19 +10293,19 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -10325,10 +10321,10 @@
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
         <v>346</v>
@@ -10352,7 +10348,7 @@
       <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
@@ -10381,7 +10377,7 @@
       <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
@@ -10410,7 +10406,7 @@
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="2" t="s">
         <v>39</v>
       </c>
@@ -10439,7 +10435,7 @@
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="2" t="s">
         <v>34</v>
       </c>
@@ -10468,7 +10464,7 @@
       <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="2" t="s">
         <v>29</v>
       </c>
@@ -10497,7 +10493,7 @@
       <c r="D25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="2" t="s">
         <v>22</v>
       </c>
@@ -10526,8 +10522,8 @@
       <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="40" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -10557,8 +10553,8 @@
       <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="13" t="s">
         <v>275</v>
       </c>
@@ -10586,8 +10582,8 @@
       <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="13" t="s">
         <v>274</v>
       </c>
@@ -10615,8 +10611,8 @@
       <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="13" t="s">
         <v>272</v>
       </c>
@@ -10644,8 +10640,8 @@
       <c r="D30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="13" t="s">
         <v>270</v>
       </c>
@@ -10693,19 +10689,19 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
@@ -10721,10 +10717,10 @@
       <c r="D33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="13"/>
       <c r="H33" s="8" t="s">
         <v>339</v>
@@ -10748,7 +10744,7 @@
       <c r="D34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="2" t="s">
         <v>49</v>
       </c>
@@ -10777,7 +10773,7 @@
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="2" t="s">
         <v>44</v>
       </c>
@@ -10806,7 +10802,7 @@
       <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="2" t="s">
         <v>39</v>
       </c>
@@ -10835,7 +10831,7 @@
       <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="2" t="s">
         <v>34</v>
       </c>
@@ -10864,7 +10860,7 @@
       <c r="D38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="2" t="s">
         <v>29</v>
       </c>
@@ -10893,7 +10889,7 @@
       <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="2" t="s">
         <v>22</v>
       </c>
@@ -10922,8 +10918,8 @@
       <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="40" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G40" s="13" t="s">
@@ -10953,8 +10949,8 @@
       <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="40"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="13" t="s">
         <v>275</v>
       </c>
@@ -10982,8 +10978,8 @@
       <c r="D42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="40"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="13" t="s">
         <v>274</v>
       </c>
@@ -11011,8 +11007,8 @@
       <c r="D43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="40"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="13" t="s">
         <v>272</v>
       </c>
@@ -11040,8 +11036,8 @@
       <c r="D44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="40"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="13" t="s">
         <v>270</v>
       </c>
@@ -11089,19 +11085,19 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
@@ -11117,10 +11113,10 @@
       <c r="D47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="31"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="13"/>
       <c r="H47" s="8" t="s">
         <v>332</v>
@@ -11144,7 +11140,7 @@
       <c r="D48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="2" t="s">
         <v>49</v>
       </c>
@@ -11173,7 +11169,7 @@
       <c r="D49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="2" t="s">
         <v>44</v>
       </c>
@@ -11202,7 +11198,7 @@
       <c r="D50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="2" t="s">
         <v>39</v>
       </c>
@@ -11231,7 +11227,7 @@
       <c r="D51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="23"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="2" t="s">
         <v>34</v>
       </c>
@@ -11260,7 +11256,7 @@
       <c r="D52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="2" t="s">
         <v>29</v>
       </c>
@@ -11289,7 +11285,7 @@
       <c r="D53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="23"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="2" t="s">
         <v>22</v>
       </c>
@@ -11318,8 +11314,8 @@
       <c r="D54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="40" t="s">
+      <c r="E54" s="24"/>
+      <c r="F54" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G54" s="13" t="s">
@@ -11349,8 +11345,8 @@
       <c r="D55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="40"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="13" t="s">
         <v>275</v>
       </c>
@@ -11378,8 +11374,8 @@
       <c r="D56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="40"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="13" t="s">
         <v>274</v>
       </c>
@@ -11407,8 +11403,8 @@
       <c r="D57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="40"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="13" t="s">
         <v>272</v>
       </c>
@@ -11436,8 +11432,8 @@
       <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="40"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="13" t="s">
         <v>270</v>
       </c>
@@ -11485,19 +11481,19 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="44"/>
     </row>
     <row r="61" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
@@ -11513,10 +11509,10 @@
       <c r="D61" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="31"/>
+      <c r="F61" s="36"/>
       <c r="G61" s="13"/>
       <c r="H61" s="8" t="s">
         <v>329</v>
@@ -11540,7 +11536,7 @@
       <c r="D62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="23"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="2" t="s">
         <v>49</v>
       </c>
@@ -11569,7 +11565,7 @@
       <c r="D63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="24"/>
       <c r="F63" s="2" t="s">
         <v>44</v>
       </c>
@@ -11598,7 +11594,7 @@
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="23"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="2" t="s">
         <v>39</v>
       </c>
@@ -11627,7 +11623,7 @@
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="23"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="2" t="s">
         <v>34</v>
       </c>
@@ -11656,7 +11652,7 @@
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="2" t="s">
         <v>29</v>
       </c>
@@ -11685,7 +11681,7 @@
       <c r="D67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="23"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="2" t="s">
         <v>22</v>
       </c>
@@ -11714,8 +11710,8 @@
       <c r="D68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="40" t="s">
+      <c r="E68" s="24"/>
+      <c r="F68" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G68" s="13" t="s">
@@ -11745,8 +11741,8 @@
       <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="40"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="13" t="s">
         <v>275</v>
       </c>
@@ -11774,8 +11770,8 @@
       <c r="D70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="40"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="13" t="s">
         <v>274</v>
       </c>
@@ -11803,8 +11799,8 @@
       <c r="D71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="40"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="13" t="s">
         <v>272</v>
       </c>
@@ -11832,8 +11828,8 @@
       <c r="D72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="40"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="41"/>
       <c r="G72" s="13" t="s">
         <v>270</v>
       </c>
@@ -11881,19 +11877,19 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="44"/>
     </row>
     <row r="75" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
@@ -11909,10 +11905,10 @@
       <c r="D75" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="31"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="13"/>
       <c r="H75" s="8" t="s">
         <v>321</v>
@@ -11936,7 +11932,7 @@
       <c r="D76" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="2" t="s">
         <v>49</v>
       </c>
@@ -11965,7 +11961,7 @@
       <c r="D77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="2" t="s">
         <v>44</v>
       </c>
@@ -11994,7 +11990,7 @@
       <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="23"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="2" t="s">
         <v>39</v>
       </c>
@@ -12023,7 +12019,7 @@
       <c r="D79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="2" t="s">
         <v>34</v>
       </c>
@@ -12052,7 +12048,7 @@
       <c r="D80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E80" s="23"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="2" t="s">
         <v>29</v>
       </c>
@@ -12081,7 +12077,7 @@
       <c r="D81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="23"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="2" t="s">
         <v>22</v>
       </c>
@@ -12110,8 +12106,8 @@
       <c r="D82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="40" t="s">
+      <c r="E82" s="24"/>
+      <c r="F82" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G82" s="13" t="s">
@@ -12141,8 +12137,8 @@
       <c r="D83" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="40"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="41"/>
       <c r="G83" s="13" t="s">
         <v>275</v>
       </c>
@@ -12170,8 +12166,8 @@
       <c r="D84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="40"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="41"/>
       <c r="G84" s="13" t="s">
         <v>274</v>
       </c>
@@ -12199,8 +12195,8 @@
       <c r="D85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="40"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="41"/>
       <c r="G85" s="13" t="s">
         <v>272</v>
       </c>
@@ -12228,8 +12224,8 @@
       <c r="D86" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="40"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="41"/>
       <c r="G86" s="13" t="s">
         <v>270</v>
       </c>
@@ -12277,19 +12273,19 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="44"/>
     </row>
     <row r="89" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
@@ -12305,10 +12301,10 @@
       <c r="D89" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F89" s="31"/>
+      <c r="F89" s="36"/>
       <c r="G89" s="13"/>
       <c r="H89" s="8" t="s">
         <v>314</v>
@@ -12332,7 +12328,7 @@
       <c r="D90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="2" t="s">
         <v>49</v>
       </c>
@@ -12361,7 +12357,7 @@
       <c r="D91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="2" t="s">
         <v>44</v>
       </c>
@@ -12390,7 +12386,7 @@
       <c r="D92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="24"/>
       <c r="F92" s="2" t="s">
         <v>39</v>
       </c>
@@ -12419,7 +12415,7 @@
       <c r="D93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="2" t="s">
         <v>34</v>
       </c>
@@ -12448,7 +12444,7 @@
       <c r="D94" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="24"/>
       <c r="F94" s="2" t="s">
         <v>29</v>
       </c>
@@ -12477,7 +12473,7 @@
       <c r="D95" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="24"/>
       <c r="F95" s="2" t="s">
         <v>22</v>
       </c>
@@ -12506,8 +12502,8 @@
       <c r="D96" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="40" t="s">
+      <c r="E96" s="24"/>
+      <c r="F96" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G96" s="13" t="s">
@@ -12537,8 +12533,8 @@
       <c r="D97" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="40"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="41"/>
       <c r="G97" s="13" t="s">
         <v>275</v>
       </c>
@@ -12566,8 +12562,8 @@
       <c r="D98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="40"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="41"/>
       <c r="G98" s="13" t="s">
         <v>274</v>
       </c>
@@ -12595,8 +12591,8 @@
       <c r="D99" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="40"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="41"/>
       <c r="G99" s="13" t="s">
         <v>272</v>
       </c>
@@ -12624,8 +12620,8 @@
       <c r="D100" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="40"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="41"/>
       <c r="G100" s="13" t="s">
         <v>270</v>
       </c>
@@ -12673,19 +12669,19 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="44"/>
     </row>
     <row r="103" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
@@ -12701,10 +12697,10 @@
       <c r="D103" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="31"/>
+      <c r="F103" s="36"/>
       <c r="G103" s="13"/>
       <c r="H103" s="8" t="s">
         <v>302</v>
@@ -12728,7 +12724,7 @@
       <c r="D104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="24"/>
       <c r="F104" s="2" t="s">
         <v>49</v>
       </c>
@@ -12757,7 +12753,7 @@
       <c r="D105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="24"/>
       <c r="F105" s="2" t="s">
         <v>44</v>
       </c>
@@ -12786,7 +12782,7 @@
       <c r="D106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="24"/>
       <c r="F106" s="2" t="s">
         <v>39</v>
       </c>
@@ -12815,7 +12811,7 @@
       <c r="D107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="24"/>
       <c r="F107" s="2" t="s">
         <v>34</v>
       </c>
@@ -12844,7 +12840,7 @@
       <c r="D108" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="24"/>
       <c r="F108" s="2" t="s">
         <v>29</v>
       </c>
@@ -12873,7 +12869,7 @@
       <c r="D109" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="23"/>
+      <c r="E109" s="24"/>
       <c r="F109" s="2" t="s">
         <v>22</v>
       </c>
@@ -12902,8 +12898,8 @@
       <c r="D110" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E110" s="23"/>
-      <c r="F110" s="40" t="s">
+      <c r="E110" s="24"/>
+      <c r="F110" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G110" s="13" t="s">
@@ -12933,8 +12929,8 @@
       <c r="D111" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="40"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="41"/>
       <c r="G111" s="13" t="s">
         <v>275</v>
       </c>
@@ -12962,8 +12958,8 @@
       <c r="D112" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="40"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="41"/>
       <c r="G112" s="13" t="s">
         <v>274</v>
       </c>
@@ -12991,8 +12987,8 @@
       <c r="D113" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E113" s="23"/>
-      <c r="F113" s="40"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="41"/>
       <c r="G113" s="13" t="s">
         <v>272</v>
       </c>
@@ -13020,8 +13016,8 @@
       <c r="D114" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="23"/>
-      <c r="F114" s="40"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="41"/>
       <c r="G114" s="13" t="s">
         <v>270</v>
       </c>
@@ -13069,19 +13065,19 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="44"/>
     </row>
     <row r="117" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
@@ -13097,10 +13093,10 @@
       <c r="D117" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F117" s="31"/>
+      <c r="F117" s="36"/>
       <c r="G117" s="13"/>
       <c r="H117" s="8" t="s">
         <v>295</v>
@@ -13124,7 +13120,7 @@
       <c r="D118" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E118" s="23"/>
+      <c r="E118" s="24"/>
       <c r="F118" s="2" t="s">
         <v>285</v>
       </c>
@@ -13153,7 +13149,7 @@
       <c r="D119" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E119" s="23"/>
+      <c r="E119" s="24"/>
       <c r="F119" s="2" t="s">
         <v>49</v>
       </c>
@@ -13182,7 +13178,7 @@
       <c r="D120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="23"/>
+      <c r="E120" s="24"/>
       <c r="F120" s="2" t="s">
         <v>44</v>
       </c>
@@ -13211,7 +13207,7 @@
       <c r="D121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="23"/>
+      <c r="E121" s="24"/>
       <c r="F121" s="2" t="s">
         <v>39</v>
       </c>
@@ -13240,7 +13236,7 @@
       <c r="D122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E122" s="23"/>
+      <c r="E122" s="24"/>
       <c r="F122" s="2" t="s">
         <v>34</v>
       </c>
@@ -13269,7 +13265,7 @@
       <c r="D123" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E123" s="23"/>
+      <c r="E123" s="24"/>
       <c r="F123" s="2" t="s">
         <v>29</v>
       </c>
@@ -13298,7 +13294,7 @@
       <c r="D124" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E124" s="23"/>
+      <c r="E124" s="24"/>
       <c r="F124" s="2" t="s">
         <v>22</v>
       </c>
@@ -13327,8 +13323,8 @@
       <c r="D125" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="40" t="s">
+      <c r="E125" s="24"/>
+      <c r="F125" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G125" s="13" t="s">
@@ -13358,8 +13354,8 @@
       <c r="D126" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="40"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="41"/>
       <c r="G126" s="13" t="s">
         <v>275</v>
       </c>
@@ -13387,8 +13383,8 @@
       <c r="D127" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="40"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="41"/>
       <c r="G127" s="13" t="s">
         <v>274</v>
       </c>
@@ -13416,8 +13412,8 @@
       <c r="D128" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="40"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="41"/>
       <c r="G128" s="13" t="s">
         <v>272</v>
       </c>
@@ -13445,8 +13441,8 @@
       <c r="D129" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E129" s="23"/>
-      <c r="F129" s="40"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="41"/>
       <c r="G129" s="13" t="s">
         <v>270</v>
       </c>
@@ -13494,19 +13490,19 @@
         <f t="shared" ref="A131:A146" si="4">ROW()-2</f>
         <v>129</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B131" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="42"/>
-      <c r="L131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="44"/>
     </row>
     <row r="132" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
@@ -13522,10 +13518,10 @@
       <c r="D132" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F132" s="31"/>
+      <c r="F132" s="36"/>
       <c r="G132" s="13"/>
       <c r="H132" s="8" t="s">
         <v>287</v>
@@ -13549,7 +13545,7 @@
       <c r="D133" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E133" s="28"/>
+      <c r="E133" s="39"/>
       <c r="F133" s="2" t="s">
         <v>285</v>
       </c>
@@ -13578,7 +13574,7 @@
       <c r="D134" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E134" s="28"/>
+      <c r="E134" s="39"/>
       <c r="F134" s="2" t="s">
         <v>49</v>
       </c>
@@ -13607,7 +13603,7 @@
       <c r="D135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E135" s="28"/>
+      <c r="E135" s="39"/>
       <c r="F135" s="2" t="s">
         <v>44</v>
       </c>
@@ -13636,7 +13632,7 @@
       <c r="D136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E136" s="28"/>
+      <c r="E136" s="39"/>
       <c r="F136" s="2" t="s">
         <v>39</v>
       </c>
@@ -13665,7 +13661,7 @@
       <c r="D137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E137" s="28"/>
+      <c r="E137" s="39"/>
       <c r="F137" s="2" t="s">
         <v>34</v>
       </c>
@@ -13694,7 +13690,7 @@
       <c r="D138" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E138" s="28"/>
+      <c r="E138" s="39"/>
       <c r="F138" s="2" t="s">
         <v>29</v>
       </c>
@@ -13723,7 +13719,7 @@
       <c r="D139" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E139" s="28"/>
+      <c r="E139" s="39"/>
       <c r="F139" s="2" t="s">
         <v>22</v>
       </c>
@@ -13752,8 +13748,8 @@
       <c r="D140" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E140" s="28"/>
-      <c r="F140" s="40" t="s">
+      <c r="E140" s="39"/>
+      <c r="F140" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G140" s="13" t="s">
@@ -13783,8 +13779,8 @@
       <c r="D141" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E141" s="28"/>
-      <c r="F141" s="40"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="41"/>
       <c r="G141" s="13" t="s">
         <v>275</v>
       </c>
@@ -13812,8 +13808,8 @@
       <c r="D142" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E142" s="28"/>
-      <c r="F142" s="40"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="41"/>
       <c r="G142" s="13" t="s">
         <v>274</v>
       </c>
@@ -13841,8 +13837,8 @@
       <c r="D143" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="40"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="41"/>
       <c r="G143" s="13" t="s">
         <v>272</v>
       </c>
@@ -13870,8 +13866,8 @@
       <c r="D144" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="28"/>
-      <c r="F144" s="40"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="41"/>
       <c r="G144" s="13" t="s">
         <v>270</v>
       </c>
@@ -13919,33 +13915,37 @@
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="B146" s="41" t="s">
+      <c r="B146" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="C146" s="42"/>
-      <c r="D146" s="42"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
-      <c r="K146" s="42"/>
-      <c r="L146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="43"/>
+      <c r="K146" s="43"/>
+      <c r="L146" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="E6:E17"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E90:E100"/>
+    <mergeCell ref="E104:E114"/>
+    <mergeCell ref="B88:L88"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E118:E129"/>
+    <mergeCell ref="E133:E144"/>
+    <mergeCell ref="F125:F129"/>
+    <mergeCell ref="B131:L131"/>
+    <mergeCell ref="F140:F144"/>
+    <mergeCell ref="E132:F132"/>
     <mergeCell ref="B146:L146"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E20:E30"/>
@@ -13962,22 +13962,18 @@
     <mergeCell ref="B102:L102"/>
     <mergeCell ref="F110:F114"/>
     <mergeCell ref="B116:L116"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="E118:E129"/>
-    <mergeCell ref="E133:E144"/>
-    <mergeCell ref="F125:F129"/>
-    <mergeCell ref="B131:L131"/>
-    <mergeCell ref="F140:F144"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E90:E100"/>
-    <mergeCell ref="E104:E114"/>
-    <mergeCell ref="B88:L88"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="B74:L74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13992,7 +13988,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B47" sqref="B47"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39:G39"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14024,11 +14020,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -14059,11 +14055,11 @@
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -14086,9 +14082,9 @@
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="2" t="s">
         <v>251</v>
       </c>
@@ -14114,10 +14110,10 @@
       <c r="E5" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="15" t="s">
         <v>386</v>
       </c>
@@ -14140,11 +14136,11 @@
       <c r="D6" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="15" t="s">
         <v>386</v>
       </c>
@@ -14167,11 +14163,11 @@
       <c r="D7" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="15" t="s">
         <v>386</v>
       </c>
@@ -14195,10 +14191,10 @@
       <c r="E8" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="15" t="s">
         <v>53</v>
       </c>
@@ -14222,10 +14218,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="2" t="s">
         <v>246</v>
       </c>
@@ -14251,10 +14247,10 @@
       <c r="E10" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="8" t="s">
         <v>427</v>
       </c>
@@ -14278,10 +14274,10 @@
         <v>55</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="2" t="s">
         <v>269</v>
       </c>
@@ -14308,11 +14304,11 @@
       <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="2" t="s">
         <v>386</v>
       </c>
@@ -14335,11 +14331,11 @@
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="2" t="s">
         <v>386</v>
       </c>
@@ -14362,11 +14358,11 @@
       <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="2" t="s">
         <v>269</v>
       </c>
@@ -14392,10 +14388,10 @@
       <c r="E15" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="b">
         <v>1</v>
@@ -14418,11 +14414,11 @@
       <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="49" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="b">
         <v>1</v>
@@ -14445,11 +14441,11 @@
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="b">
         <v>1</v>
@@ -14472,11 +14468,11 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="8" t="s">
         <v>409</v>
       </c>
@@ -14501,11 +14497,11 @@
       <c r="D19" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="2" t="s">
         <v>269</v>
       </c>
@@ -14531,10 +14527,10 @@
       <c r="E20" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -14555,11 +14551,11 @@
       <c r="D21" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="49" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -14580,11 +14576,11 @@
       <c r="D22" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -14605,11 +14601,11 @@
       <c r="D23" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="8" t="s">
         <v>397</v>
       </c>
@@ -14632,11 +14628,11 @@
       <c r="D24" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="2" t="s">
         <v>269</v>
       </c>
@@ -14662,10 +14658,10 @@
       <c r="E25" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="2" t="s">
         <v>386</v>
       </c>
@@ -14688,11 +14684,11 @@
       <c r="D26" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="31"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="2" t="s">
         <v>386</v>
       </c>
@@ -14715,11 +14711,11 @@
       <c r="D27" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="31"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="8" t="s">
         <v>381</v>
       </c>
@@ -14744,7 +14740,7 @@
       <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="18" t="s">
         <v>379</v>
       </c>
@@ -14773,8 +14769,8 @@
       <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="16" t="s">
         <v>376</v>
       </c>
@@ -14800,8 +14796,8 @@
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="16" t="s">
         <v>373</v>
       </c>
@@ -14819,7 +14815,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>569</v>
@@ -14830,10 +14826,10 @@
       <c r="E31" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="47" t="s">
         <v>573</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="8" t="s">
         <v>571</v>
       </c>
@@ -14857,10 +14853,10 @@
         <v>579</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="47" t="s">
         <v>574</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="2" t="s">
         <v>577</v>
       </c>
@@ -14886,10 +14882,10 @@
       <c r="E33" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="47" t="s">
         <v>575</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="2" t="s">
         <v>368</v>
       </c>
@@ -14915,10 +14911,10 @@
         <v>55</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="47" t="s">
         <v>576</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="2" t="s">
         <v>368</v>
       </c>
@@ -14943,9 +14939,9 @@
       <c r="D35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="27"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="2" t="s">
         <v>360</v>
       </c>
@@ -14968,9 +14964,9 @@
       <c r="D36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="27"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="2" t="s">
         <v>360</v>
       </c>
@@ -14993,9 +14989,9 @@
       <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="27"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="2" t="s">
         <v>360</v>
       </c>
@@ -15018,9 +15014,9 @@
       <c r="D38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="27"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="2" t="s">
         <v>360</v>
       </c>
@@ -15043,9 +15039,9 @@
       <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="27"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
       <c r="H39" s="2" t="s">
         <v>360</v>
       </c>
@@ -15068,9 +15064,9 @@
       <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="27"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="2" t="s">
         <v>360</v>
       </c>
@@ -15093,9 +15089,9 @@
       <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="27"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
       <c r="H41" s="2" t="s">
         <v>360</v>
       </c>
@@ -15112,28 +15108,12 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="F29:F30"/>
@@ -15143,17 +15123,33 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15234,7 +15230,7 @@
         <v>540</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -15252,7 +15248,7 @@
         <v>541</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -15270,7 +15266,7 @@
         <v>543</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -15288,7 +15284,7 @@
         <v>544</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -15306,7 +15302,7 @@
         <v>550</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -15324,7 +15320,7 @@
         <v>549</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -15342,7 +15338,7 @@
         <v>547</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -15360,7 +15356,7 @@
         <v>545</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -15440,11 +15436,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -15475,11 +15471,11 @@
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -15502,11 +15498,11 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="8" t="s">
         <v>231</v>
       </c>
@@ -15531,11 +15527,11 @@
       <c r="D5" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
       <c r="J5" s="2" t="s">
@@ -15558,11 +15554,11 @@
       <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="2" t="s">
         <v>225</v>
       </c>
@@ -15587,11 +15583,11 @@
       <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="2" t="s">
         <v>222</v>
       </c>
@@ -15662,11 +15658,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -15697,11 +15693,11 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -15724,11 +15720,11 @@
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="2" t="s">
         <v>190</v>
       </c>
@@ -15753,11 +15749,11 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="2" t="s">
         <v>237</v>
       </c>
@@ -15782,11 +15778,11 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="2" t="s">
         <v>190</v>
       </c>
@@ -15811,11 +15807,11 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="2" t="s">
         <v>237</v>
       </c>
@@ -15840,11 +15836,11 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="2" t="s">
         <v>446</v>
       </c>
@@ -15867,11 +15863,11 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="2" t="s">
         <v>246</v>
       </c>
@@ -15880,7 +15876,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -15894,11 +15890,11 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="8" t="s">
         <v>219</v>
       </c>
@@ -15921,11 +15917,11 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="2" t="s">
         <v>197</v>
       </c>
@@ -15952,8 +15948,8 @@
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="2" t="s">
         <v>195</v>
       </c>
@@ -15983,8 +15979,8 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="2" t="s">
         <v>193</v>
       </c>
@@ -16014,8 +16010,8 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="2" t="s">
         <v>191</v>
       </c>
@@ -16045,8 +16041,8 @@
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="2" t="s">
         <v>188</v>
       </c>
@@ -16076,11 +16072,11 @@
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="2" t="s">
         <v>197</v>
       </c>
@@ -16107,8 +16103,8 @@
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="2" t="s">
         <v>195</v>
       </c>
@@ -16138,8 +16134,8 @@
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="2" t="s">
         <v>193</v>
       </c>
@@ -16169,8 +16165,8 @@
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="2" t="s">
         <v>191</v>
       </c>
@@ -16200,8 +16196,8 @@
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="2" t="s">
         <v>188</v>
       </c>
@@ -16231,11 +16227,11 @@
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="2" t="s">
         <v>197</v>
       </c>
@@ -16262,8 +16258,8 @@
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="2" t="s">
         <v>195</v>
       </c>
@@ -16293,8 +16289,8 @@
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="2" t="s">
         <v>193</v>
       </c>
@@ -16324,8 +16320,8 @@
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="2" t="s">
         <v>191</v>
       </c>
@@ -16355,8 +16351,8 @@
       <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="2" t="s">
         <v>188</v>
       </c>
@@ -16386,11 +16382,11 @@
       <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="27"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="2" t="s">
         <v>197</v>
       </c>
@@ -16417,8 +16413,8 @@
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="2" t="s">
         <v>195</v>
       </c>
@@ -16448,8 +16444,8 @@
       <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="2" t="s">
         <v>193</v>
       </c>
@@ -16479,8 +16475,8 @@
       <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="2" t="s">
         <v>191</v>
       </c>
@@ -16510,8 +16506,8 @@
       <c r="D30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="2" t="s">
         <v>188</v>
       </c>
@@ -16541,11 +16537,11 @@
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="25" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="2" t="s">
         <v>197</v>
       </c>
@@ -16572,8 +16568,8 @@
       <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="2" t="s">
         <v>195</v>
       </c>
@@ -16603,8 +16599,8 @@
       <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="2" t="s">
         <v>193</v>
       </c>
@@ -16634,8 +16630,8 @@
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="2" t="s">
         <v>191</v>
       </c>
@@ -16665,8 +16661,8 @@
       <c r="D35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="2" t="s">
         <v>188</v>
       </c>
@@ -16696,11 +16692,11 @@
       <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="8" t="s">
         <v>184</v>
       </c>
@@ -16727,7 +16723,7 @@
       <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
@@ -16756,7 +16752,7 @@
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="28"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="2" t="s">
         <v>178</v>
       </c>
@@ -16785,7 +16781,7 @@
       <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="2" t="s">
         <v>175</v>
       </c>
@@ -16812,13 +16808,13 @@
       <c r="D40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="31"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="10" t="s">
         <v>171</v>
       </c>
@@ -16841,8 +16837,8 @@
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="2" t="s">
         <v>49</v>
       </c>
@@ -16874,8 +16870,8 @@
       <c r="D42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="32"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="2" t="s">
         <v>44</v>
       </c>
@@ -16905,8 +16901,8 @@
       <c r="D43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="32"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="2" t="s">
         <v>39</v>
       </c>
@@ -16936,8 +16932,8 @@
       <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="32"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="2" t="s">
         <v>34</v>
       </c>
@@ -16965,8 +16961,8 @@
       <c r="D45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="32"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="2" t="s">
         <v>29</v>
       </c>
@@ -16996,8 +16992,8 @@
       <c r="D46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="38"/>
       <c r="G46" s="2" t="s">
         <v>22</v>
       </c>
@@ -17027,11 +17023,11 @@
       <c r="D47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="30" t="s">
+      <c r="E47" s="34"/>
+      <c r="F47" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="G47" s="31"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="10" t="s">
         <v>159</v>
       </c>
@@ -17054,8 +17050,8 @@
       <c r="D48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="32"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="2" t="s">
         <v>49</v>
       </c>
@@ -17087,8 +17083,8 @@
       <c r="D49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="32"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="2" t="s">
         <v>44</v>
       </c>
@@ -17118,8 +17114,8 @@
       <c r="D50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="32"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="2" t="s">
         <v>39</v>
       </c>
@@ -17149,8 +17145,8 @@
       <c r="D51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="32"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="2" t="s">
         <v>34</v>
       </c>
@@ -17178,8 +17174,8 @@
       <c r="D52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="32"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="2" t="s">
         <v>29</v>
       </c>
@@ -17209,8 +17205,8 @@
       <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="38"/>
       <c r="G53" s="2" t="s">
         <v>22</v>
       </c>
@@ -17240,11 +17236,11 @@
       <c r="D54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="30" t="s">
+      <c r="E54" s="34"/>
+      <c r="F54" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="10" t="s">
         <v>147</v>
       </c>
@@ -17267,8 +17263,8 @@
       <c r="D55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="32"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="2" t="s">
         <v>49</v>
       </c>
@@ -17300,8 +17296,8 @@
       <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="32"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="2" t="s">
         <v>44</v>
       </c>
@@ -17331,8 +17327,8 @@
       <c r="D57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="2" t="s">
         <v>39</v>
       </c>
@@ -17362,8 +17358,8 @@
       <c r="D58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="32"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="37"/>
       <c r="G58" s="2" t="s">
         <v>34</v>
       </c>
@@ -17391,8 +17387,8 @@
       <c r="D59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="32"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="2" t="s">
         <v>29</v>
       </c>
@@ -17422,8 +17418,8 @@
       <c r="D60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="33"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="2" t="s">
         <v>22</v>
       </c>
@@ -17453,11 +17449,11 @@
       <c r="D61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="30" t="s">
+      <c r="E61" s="34"/>
+      <c r="F61" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G61" s="31"/>
+      <c r="G61" s="36"/>
       <c r="H61" s="10" t="s">
         <v>135</v>
       </c>
@@ -17480,8 +17476,8 @@
       <c r="D62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="32"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="37"/>
       <c r="G62" s="2" t="s">
         <v>49</v>
       </c>
@@ -17513,8 +17509,8 @@
       <c r="D63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="32"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="37"/>
       <c r="G63" s="2" t="s">
         <v>44</v>
       </c>
@@ -17544,8 +17540,8 @@
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="32"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="37"/>
       <c r="G64" s="2" t="s">
         <v>39</v>
       </c>
@@ -17575,8 +17571,8 @@
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="32"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="37"/>
       <c r="G65" s="2" t="s">
         <v>34</v>
       </c>
@@ -17604,8 +17600,8 @@
       <c r="D66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="32"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="37"/>
       <c r="G66" s="2" t="s">
         <v>29</v>
       </c>
@@ -17635,8 +17631,8 @@
       <c r="D67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="33"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="38"/>
       <c r="G67" s="2" t="s">
         <v>22</v>
       </c>
@@ -17666,11 +17662,11 @@
       <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="30" t="s">
+      <c r="E68" s="34"/>
+      <c r="F68" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="31"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="10" t="s">
         <v>120</v>
       </c>
@@ -17693,8 +17689,8 @@
       <c r="D69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="32"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="37"/>
       <c r="G69" s="2" t="s">
         <v>49</v>
       </c>
@@ -17726,8 +17722,8 @@
       <c r="D70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="32"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="37"/>
       <c r="G70" s="2" t="s">
         <v>44</v>
       </c>
@@ -17757,8 +17753,8 @@
       <c r="D71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="32"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="37"/>
       <c r="G71" s="2" t="s">
         <v>39</v>
       </c>
@@ -17788,8 +17784,8 @@
       <c r="D72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="32"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="2" t="s">
         <v>34</v>
       </c>
@@ -17817,8 +17813,8 @@
       <c r="D73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="32"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="2" t="s">
         <v>29</v>
       </c>
@@ -17848,8 +17844,8 @@
       <c r="D74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="33"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="38"/>
       <c r="G74" s="2" t="s">
         <v>22</v>
       </c>
@@ -17879,11 +17875,11 @@
       <c r="D75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="30" t="s">
+      <c r="E75" s="34"/>
+      <c r="F75" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="G75" s="31"/>
+      <c r="G75" s="36"/>
       <c r="H75" s="10" t="s">
         <v>108</v>
       </c>
@@ -17906,8 +17902,8 @@
       <c r="D76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E76" s="36"/>
-      <c r="F76" s="32"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="37"/>
       <c r="G76" s="2" t="s">
         <v>49</v>
       </c>
@@ -17939,8 +17935,8 @@
       <c r="D77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="32"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="37"/>
       <c r="G77" s="2" t="s">
         <v>44</v>
       </c>
@@ -17970,8 +17966,8 @@
       <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="32"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="37"/>
       <c r="G78" s="2" t="s">
         <v>39</v>
       </c>
@@ -18001,8 +17997,8 @@
       <c r="D79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="32"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="37"/>
       <c r="G79" s="2" t="s">
         <v>34</v>
       </c>
@@ -18030,8 +18026,8 @@
       <c r="D80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="32"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="37"/>
       <c r="G80" s="2" t="s">
         <v>29</v>
       </c>
@@ -18061,8 +18057,8 @@
       <c r="D81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="36"/>
-      <c r="F81" s="33"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="38"/>
       <c r="G81" s="2" t="s">
         <v>22</v>
       </c>
@@ -18092,11 +18088,11 @@
       <c r="D82" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="36"/>
-      <c r="F82" s="30" t="s">
+      <c r="E82" s="34"/>
+      <c r="F82" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="31"/>
+      <c r="G82" s="36"/>
       <c r="H82" s="10" t="s">
         <v>96</v>
       </c>
@@ -18119,8 +18115,8 @@
       <c r="D83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="36"/>
-      <c r="F83" s="32"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="37"/>
       <c r="G83" s="2" t="s">
         <v>49</v>
       </c>
@@ -18152,8 +18148,8 @@
       <c r="D84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="32"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="37"/>
       <c r="G84" s="2" t="s">
         <v>44</v>
       </c>
@@ -18183,8 +18179,8 @@
       <c r="D85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="32"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="37"/>
       <c r="G85" s="2" t="s">
         <v>39</v>
       </c>
@@ -18214,8 +18210,8 @@
       <c r="D86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="32"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="37"/>
       <c r="G86" s="2" t="s">
         <v>34</v>
       </c>
@@ -18243,8 +18239,8 @@
       <c r="D87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="32"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="37"/>
       <c r="G87" s="2" t="s">
         <v>29</v>
       </c>
@@ -18274,8 +18270,8 @@
       <c r="D88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="33"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="38"/>
       <c r="G88" s="2" t="s">
         <v>22</v>
       </c>
@@ -18305,11 +18301,11 @@
       <c r="D89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E89" s="36"/>
-      <c r="F89" s="30" t="s">
+      <c r="E89" s="34"/>
+      <c r="F89" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="G89" s="31"/>
+      <c r="G89" s="36"/>
       <c r="H89" s="10" t="s">
         <v>84</v>
       </c>
@@ -18332,8 +18328,8 @@
       <c r="D90" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="32"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="37"/>
       <c r="G90" s="2" t="s">
         <v>49</v>
       </c>
@@ -18365,8 +18361,8 @@
       <c r="D91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="36"/>
-      <c r="F91" s="32"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="37"/>
       <c r="G91" s="2" t="s">
         <v>44</v>
       </c>
@@ -18396,8 +18392,8 @@
       <c r="D92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="32"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="37"/>
       <c r="G92" s="2" t="s">
         <v>39</v>
       </c>
@@ -18427,8 +18423,8 @@
       <c r="D93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="32"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="37"/>
       <c r="G93" s="2" t="s">
         <v>34</v>
       </c>
@@ -18456,8 +18452,8 @@
       <c r="D94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="36"/>
-      <c r="F94" s="32"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="37"/>
       <c r="G94" s="2" t="s">
         <v>29</v>
       </c>
@@ -18487,8 +18483,8 @@
       <c r="D95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="36"/>
-      <c r="F95" s="33"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="38"/>
       <c r="G95" s="2" t="s">
         <v>22</v>
       </c>
@@ -18518,11 +18514,11 @@
       <c r="D96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="25" t="s">
+      <c r="E96" s="34"/>
+      <c r="F96" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="27"/>
+      <c r="G96" s="33"/>
       <c r="H96" s="10" t="s">
         <v>72</v>
       </c>
@@ -18545,8 +18541,8 @@
       <c r="D97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="28"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="39"/>
       <c r="G97" s="2" t="s">
         <v>71</v>
       </c>
@@ -18574,8 +18570,8 @@
       <c r="D98" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="28"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="39"/>
       <c r="G98" s="2" t="s">
         <v>49</v>
       </c>
@@ -18607,8 +18603,8 @@
       <c r="D99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="28"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="39"/>
       <c r="G99" s="2" t="s">
         <v>44</v>
       </c>
@@ -18638,8 +18634,8 @@
       <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="28"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="39"/>
       <c r="G100" s="2" t="s">
         <v>39</v>
       </c>
@@ -18669,8 +18665,8 @@
       <c r="D101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="28"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="39"/>
       <c r="G101" s="2" t="s">
         <v>34</v>
       </c>
@@ -18698,8 +18694,8 @@
       <c r="D102" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="28"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="39"/>
       <c r="G102" s="2" t="s">
         <v>29</v>
       </c>
@@ -18729,8 +18725,8 @@
       <c r="D103" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="29"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="40"/>
       <c r="G103" s="2" t="s">
         <v>22</v>
       </c>
@@ -18760,11 +18756,11 @@
       <c r="D104" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="34" t="s">
+      <c r="E104" s="34"/>
+      <c r="F104" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G104" s="27"/>
+      <c r="G104" s="33"/>
       <c r="H104" s="10" t="s">
         <v>57</v>
       </c>
@@ -18787,8 +18783,8 @@
       <c r="D105" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="36"/>
-      <c r="F105" s="28"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="39"/>
       <c r="G105" s="2" t="s">
         <v>54</v>
       </c>
@@ -18816,8 +18812,8 @@
       <c r="D106" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="36"/>
-      <c r="F106" s="28"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="39"/>
       <c r="G106" s="2" t="s">
         <v>49</v>
       </c>
@@ -18849,8 +18845,8 @@
       <c r="D107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="36"/>
-      <c r="F107" s="28"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="39"/>
       <c r="G107" s="2" t="s">
         <v>44</v>
       </c>
@@ -18880,8 +18876,8 @@
       <c r="D108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="28"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="39"/>
       <c r="G108" s="2" t="s">
         <v>39</v>
       </c>
@@ -18911,8 +18907,8 @@
       <c r="D109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E109" s="36"/>
-      <c r="F109" s="28"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="39"/>
       <c r="G109" s="2" t="s">
         <v>34</v>
       </c>
@@ -18940,8 +18936,8 @@
       <c r="D110" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="28"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="39"/>
       <c r="G110" s="2" t="s">
         <v>29</v>
       </c>
@@ -18971,8 +18967,8 @@
       <c r="D111" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="29"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="40"/>
       <c r="G111" s="2" t="s">
         <v>22</v>
       </c>
@@ -18990,33 +18986,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:F95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:F111"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:F81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E111"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
@@ -19028,11 +19002,33 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:F20"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E111"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="F105:F111"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:F81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:F95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="F104:G104"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19078,11 +19074,11 @@
       <c r="D2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
@@ -19113,11 +19109,11 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="2" t="s">
         <v>254</v>
       </c>
@@ -19142,10 +19138,10 @@
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>354</v>
@@ -19169,7 +19165,7 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="2" t="s">
         <v>49</v>
       </c>
@@ -19198,7 +19194,7 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
@@ -19227,7 +19223,7 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
@@ -19256,7 +19252,7 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
@@ -19285,7 +19281,7 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
@@ -19314,7 +19310,7 @@
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
@@ -19343,8 +19339,8 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G11" s="21" t="s">
@@ -19374,8 +19370,8 @@
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="21" t="s">
         <v>275</v>
       </c>
@@ -19403,8 +19399,8 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="21" t="s">
         <v>274</v>
       </c>
@@ -19432,8 +19428,8 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="21" t="s">
         <v>272</v>
       </c>
@@ -19461,8 +19457,8 @@
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="21" t="s">
         <v>270</v>
       </c>
@@ -19490,8 +19486,8 @@
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="21" t="s">
         <v>458</v>
       </c>
@@ -19510,19 +19506,19 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -19538,10 +19534,10 @@
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="13"/>
       <c r="H18" s="8" t="s">
         <v>346</v>
@@ -19565,7 +19561,7 @@
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
@@ -19594,7 +19590,7 @@
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="2" t="s">
         <v>44</v>
       </c>
@@ -19623,7 +19619,7 @@
       <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
@@ -19652,7 +19648,7 @@
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
@@ -19681,7 +19677,7 @@
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
@@ -19710,7 +19706,7 @@
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
@@ -19739,8 +19735,8 @@
       <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="40" t="s">
+      <c r="E25" s="24"/>
+      <c r="F25" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G25" s="13" t="s">
@@ -19770,8 +19766,8 @@
       <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="13" t="s">
         <v>275</v>
       </c>
@@ -19799,8 +19795,8 @@
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="13" t="s">
         <v>274</v>
       </c>
@@ -19828,8 +19824,8 @@
       <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="13" t="s">
         <v>272</v>
       </c>
@@ -19857,8 +19853,8 @@
       <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="13" t="s">
         <v>270</v>
       </c>
@@ -19906,19 +19902,19 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -19934,10 +19930,10 @@
       <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="13"/>
       <c r="H32" s="8" t="s">
         <v>339</v>
@@ -19961,7 +19957,7 @@
       <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
@@ -19990,7 +19986,7 @@
       <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="2" t="s">
         <v>44</v>
       </c>
@@ -20019,7 +20015,7 @@
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="2" t="s">
         <v>39</v>
       </c>
@@ -20048,7 +20044,7 @@
       <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="2" t="s">
         <v>34</v>
       </c>
@@ -20077,7 +20073,7 @@
       <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="2" t="s">
         <v>29</v>
       </c>
@@ -20106,7 +20102,7 @@
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="2" t="s">
         <v>22</v>
       </c>
@@ -20135,8 +20131,8 @@
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="40" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G39" s="13" t="s">
@@ -20166,8 +20162,8 @@
       <c r="D40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="40"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="13" t="s">
         <v>275</v>
       </c>
@@ -20195,8 +20191,8 @@
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="40"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="13" t="s">
         <v>274</v>
       </c>
@@ -20224,8 +20220,8 @@
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="40"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="13" t="s">
         <v>272</v>
       </c>
@@ -20253,8 +20249,8 @@
       <c r="D43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="40"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="13" t="s">
         <v>270</v>
       </c>
@@ -20302,19 +20298,19 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="44"/>
     </row>
     <row r="46" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
@@ -20330,10 +20326,10 @@
       <c r="D46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="31"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="13"/>
       <c r="H46" s="8" t="s">
         <v>332</v>
@@ -20357,7 +20353,7 @@
       <c r="D47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="2" t="s">
         <v>49</v>
       </c>
@@ -20386,7 +20382,7 @@
       <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="2" t="s">
         <v>44</v>
       </c>
@@ -20415,7 +20411,7 @@
       <c r="D49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="2" t="s">
         <v>39</v>
       </c>
@@ -20444,7 +20440,7 @@
       <c r="D50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="2" t="s">
         <v>34</v>
       </c>
@@ -20473,7 +20469,7 @@
       <c r="D51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="23"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="2" t="s">
         <v>29</v>
       </c>
@@ -20502,7 +20498,7 @@
       <c r="D52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="2" t="s">
         <v>22</v>
       </c>
@@ -20531,8 +20527,8 @@
       <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="40" t="s">
+      <c r="E53" s="24"/>
+      <c r="F53" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G53" s="13" t="s">
@@ -20562,8 +20558,8 @@
       <c r="D54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="40"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="13" t="s">
         <v>275</v>
       </c>
@@ -20591,8 +20587,8 @@
       <c r="D55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="40"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="13" t="s">
         <v>274</v>
       </c>
@@ -20620,8 +20616,8 @@
       <c r="D56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="40"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="13" t="s">
         <v>272</v>
       </c>
@@ -20649,8 +20645,8 @@
       <c r="D57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="40"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="13" t="s">
         <v>270</v>
       </c>
@@ -20698,19 +20694,19 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
@@ -20726,10 +20722,10 @@
       <c r="D60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="31"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="13"/>
       <c r="H60" s="8" t="s">
         <v>329</v>
@@ -20753,7 +20749,7 @@
       <c r="D61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="23"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="2" t="s">
         <v>49</v>
       </c>
@@ -20782,7 +20778,7 @@
       <c r="D62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="23"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="2" t="s">
         <v>44</v>
       </c>
@@ -20811,7 +20807,7 @@
       <c r="D63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="24"/>
       <c r="F63" s="2" t="s">
         <v>39</v>
       </c>
@@ -20840,7 +20836,7 @@
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="23"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="2" t="s">
         <v>34</v>
       </c>
@@ -20869,7 +20865,7 @@
       <c r="D65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="23"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="2" t="s">
         <v>29</v>
       </c>
@@ -20898,7 +20894,7 @@
       <c r="D66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="2" t="s">
         <v>22</v>
       </c>
@@ -20927,8 +20923,8 @@
       <c r="D67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="40" t="s">
+      <c r="E67" s="24"/>
+      <c r="F67" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G67" s="13" t="s">
@@ -20958,8 +20954,8 @@
       <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="40"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="41"/>
       <c r="G68" s="13" t="s">
         <v>275</v>
       </c>
@@ -20987,8 +20983,8 @@
       <c r="D69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="40"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="13" t="s">
         <v>274</v>
       </c>
@@ -21016,8 +21012,8 @@
       <c r="D70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="40"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="13" t="s">
         <v>272</v>
       </c>
@@ -21045,8 +21041,8 @@
       <c r="D71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="40"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="13" t="s">
         <v>270</v>
       </c>
@@ -21094,19 +21090,19 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="44"/>
     </row>
     <row r="74" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
@@ -21122,10 +21118,10 @@
       <c r="D74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="31"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="13"/>
       <c r="H74" s="8" t="s">
         <v>321</v>
@@ -21149,7 +21145,7 @@
       <c r="D75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="23"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="2" t="s">
         <v>49</v>
       </c>
@@ -21178,7 +21174,7 @@
       <c r="D76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="2" t="s">
         <v>44</v>
       </c>
@@ -21207,7 +21203,7 @@
       <c r="D77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="2" t="s">
         <v>39</v>
       </c>
@@ -21236,7 +21232,7 @@
       <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="23"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="2" t="s">
         <v>34</v>
       </c>
@@ -21265,7 +21261,7 @@
       <c r="D79" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="2" t="s">
         <v>29</v>
       </c>
@@ -21294,7 +21290,7 @@
       <c r="D80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="23"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="2" t="s">
         <v>22</v>
       </c>
@@ -21323,8 +21319,8 @@
       <c r="D81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="40" t="s">
+      <c r="E81" s="24"/>
+      <c r="F81" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G81" s="13" t="s">
@@ -21354,8 +21350,8 @@
       <c r="D82" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="40"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="41"/>
       <c r="G82" s="13" t="s">
         <v>275</v>
       </c>
@@ -21383,8 +21379,8 @@
       <c r="D83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="40"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="41"/>
       <c r="G83" s="13" t="s">
         <v>274</v>
       </c>
@@ -21412,8 +21408,8 @@
       <c r="D84" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="40"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="41"/>
       <c r="G84" s="13" t="s">
         <v>272</v>
       </c>
@@ -21441,8 +21437,8 @@
       <c r="D85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="40"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="41"/>
       <c r="G85" s="13" t="s">
         <v>270</v>
       </c>
@@ -21490,19 +21486,19 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="44"/>
     </row>
     <row r="88" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
@@ -21518,10 +21514,10 @@
       <c r="D88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F88" s="31"/>
+      <c r="F88" s="36"/>
       <c r="G88" s="13"/>
       <c r="H88" s="8" t="s">
         <v>314</v>
@@ -21545,7 +21541,7 @@
       <c r="D89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E89" s="23"/>
+      <c r="E89" s="24"/>
       <c r="F89" s="2" t="s">
         <v>49</v>
       </c>
@@ -21574,7 +21570,7 @@
       <c r="D90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="2" t="s">
         <v>44</v>
       </c>
@@ -21603,7 +21599,7 @@
       <c r="D91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="2" t="s">
         <v>39</v>
       </c>
@@ -21632,7 +21628,7 @@
       <c r="D92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="24"/>
       <c r="F92" s="2" t="s">
         <v>34</v>
       </c>
@@ -21661,7 +21657,7 @@
       <c r="D93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="2" t="s">
         <v>29</v>
       </c>
@@ -21690,7 +21686,7 @@
       <c r="D94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="24"/>
       <c r="F94" s="2" t="s">
         <v>22</v>
       </c>
@@ -21719,8 +21715,8 @@
       <c r="D95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="40" t="s">
+      <c r="E95" s="24"/>
+      <c r="F95" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G95" s="13" t="s">
@@ -21750,8 +21746,8 @@
       <c r="D96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="40"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="41"/>
       <c r="G96" s="13" t="s">
         <v>275</v>
       </c>
@@ -21779,8 +21775,8 @@
       <c r="D97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="40"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="41"/>
       <c r="G97" s="13" t="s">
         <v>274</v>
       </c>
@@ -21808,8 +21804,8 @@
       <c r="D98" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="40"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="41"/>
       <c r="G98" s="13" t="s">
         <v>272</v>
       </c>
@@ -21837,8 +21833,8 @@
       <c r="D99" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="40"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="41"/>
       <c r="G99" s="13" t="s">
         <v>270</v>
       </c>
@@ -21886,19 +21882,19 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="44"/>
     </row>
     <row r="102" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
@@ -21914,10 +21910,10 @@
       <c r="D102" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E102" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="31"/>
+      <c r="F102" s="36"/>
       <c r="G102" s="13"/>
       <c r="H102" s="8" t="s">
         <v>302</v>
@@ -21941,7 +21937,7 @@
       <c r="D103" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="24"/>
       <c r="F103" s="2" t="s">
         <v>49</v>
       </c>
@@ -21970,7 +21966,7 @@
       <c r="D104" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="24"/>
       <c r="F104" s="2" t="s">
         <v>44</v>
       </c>
@@ -21999,7 +21995,7 @@
       <c r="D105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="24"/>
       <c r="F105" s="2" t="s">
         <v>39</v>
       </c>
@@ -22028,7 +22024,7 @@
       <c r="D106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="24"/>
       <c r="F106" s="2" t="s">
         <v>34</v>
       </c>
@@ -22057,7 +22053,7 @@
       <c r="D107" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="24"/>
       <c r="F107" s="2" t="s">
         <v>29</v>
       </c>
@@ -22086,7 +22082,7 @@
       <c r="D108" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="24"/>
       <c r="F108" s="2" t="s">
         <v>22</v>
       </c>
@@ -22115,8 +22111,8 @@
       <c r="D109" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="40" t="s">
+      <c r="E109" s="24"/>
+      <c r="F109" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G109" s="13" t="s">
@@ -22146,8 +22142,8 @@
       <c r="D110" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="23"/>
-      <c r="F110" s="40"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="41"/>
       <c r="G110" s="13" t="s">
         <v>275</v>
       </c>
@@ -22175,8 +22171,8 @@
       <c r="D111" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="40"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="41"/>
       <c r="G111" s="13" t="s">
         <v>274</v>
       </c>
@@ -22204,8 +22200,8 @@
       <c r="D112" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="40"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="41"/>
       <c r="G112" s="13" t="s">
         <v>272</v>
       </c>
@@ -22233,8 +22229,8 @@
       <c r="D113" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="23"/>
-      <c r="F113" s="40"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="41"/>
       <c r="G113" s="13" t="s">
         <v>270</v>
       </c>
@@ -22282,19 +22278,19 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="C115" s="42"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="42"/>
-      <c r="L115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="44"/>
     </row>
     <row r="116" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
@@ -22310,10 +22306,10 @@
       <c r="D116" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F116" s="31"/>
+      <c r="F116" s="36"/>
       <c r="G116" s="13"/>
       <c r="H116" s="8" t="s">
         <v>295</v>
@@ -22337,7 +22333,7 @@
       <c r="D117" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E117" s="23"/>
+      <c r="E117" s="24"/>
       <c r="F117" s="2" t="s">
         <v>285</v>
       </c>
@@ -22366,7 +22362,7 @@
       <c r="D118" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E118" s="23"/>
+      <c r="E118" s="24"/>
       <c r="F118" s="2" t="s">
         <v>49</v>
       </c>
@@ -22395,7 +22391,7 @@
       <c r="D119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E119" s="23"/>
+      <c r="E119" s="24"/>
       <c r="F119" s="2" t="s">
         <v>44</v>
       </c>
@@ -22424,7 +22420,7 @@
       <c r="D120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="23"/>
+      <c r="E120" s="24"/>
       <c r="F120" s="2" t="s">
         <v>39</v>
       </c>
@@ -22453,7 +22449,7 @@
       <c r="D121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="23"/>
+      <c r="E121" s="24"/>
       <c r="F121" s="2" t="s">
         <v>34</v>
       </c>
@@ -22482,7 +22478,7 @@
       <c r="D122" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E122" s="23"/>
+      <c r="E122" s="24"/>
       <c r="F122" s="2" t="s">
         <v>29</v>
       </c>
@@ -22511,7 +22507,7 @@
       <c r="D123" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E123" s="23"/>
+      <c r="E123" s="24"/>
       <c r="F123" s="2" t="s">
         <v>22</v>
       </c>
@@ -22540,8 +22536,8 @@
       <c r="D124" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="40" t="s">
+      <c r="E124" s="24"/>
+      <c r="F124" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G124" s="13" t="s">
@@ -22571,8 +22567,8 @@
       <c r="D125" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="40"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="41"/>
       <c r="G125" s="13" t="s">
         <v>275</v>
       </c>
@@ -22600,8 +22596,8 @@
       <c r="D126" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="40"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="41"/>
       <c r="G126" s="13" t="s">
         <v>274</v>
       </c>
@@ -22629,8 +22625,8 @@
       <c r="D127" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="40"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="41"/>
       <c r="G127" s="13" t="s">
         <v>272</v>
       </c>
@@ -22658,8 +22654,8 @@
       <c r="D128" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="40"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="41"/>
       <c r="G128" s="13" t="s">
         <v>270</v>
       </c>
@@ -22707,19 +22703,19 @@
         <f t="shared" ref="A130:A145" si="2">ROW()-2</f>
         <v>128</v>
       </c>
-      <c r="B130" s="41" t="s">
+      <c r="B130" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C130" s="42"/>
-      <c r="D130" s="42"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="42"/>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="42"/>
-      <c r="K130" s="42"/>
-      <c r="L130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="44"/>
     </row>
     <row r="131" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
@@ -22735,10 +22731,10 @@
       <c r="D131" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F131" s="31"/>
+      <c r="F131" s="36"/>
       <c r="G131" s="13"/>
       <c r="H131" s="8" t="s">
         <v>287</v>
@@ -22762,7 +22758,7 @@
       <c r="D132" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E132" s="28"/>
+      <c r="E132" s="39"/>
       <c r="F132" s="2" t="s">
         <v>285</v>
       </c>
@@ -22791,7 +22787,7 @@
       <c r="D133" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="28"/>
+      <c r="E133" s="39"/>
       <c r="F133" s="2" t="s">
         <v>49</v>
       </c>
@@ -22820,7 +22816,7 @@
       <c r="D134" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E134" s="28"/>
+      <c r="E134" s="39"/>
       <c r="F134" s="2" t="s">
         <v>44</v>
       </c>
@@ -22849,7 +22845,7 @@
       <c r="D135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E135" s="28"/>
+      <c r="E135" s="39"/>
       <c r="F135" s="2" t="s">
         <v>39</v>
       </c>
@@ -22878,7 +22874,7 @@
       <c r="D136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E136" s="28"/>
+      <c r="E136" s="39"/>
       <c r="F136" s="2" t="s">
         <v>34</v>
       </c>
@@ -22907,7 +22903,7 @@
       <c r="D137" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E137" s="28"/>
+      <c r="E137" s="39"/>
       <c r="F137" s="2" t="s">
         <v>29</v>
       </c>
@@ -22936,7 +22932,7 @@
       <c r="D138" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E138" s="28"/>
+      <c r="E138" s="39"/>
       <c r="F138" s="2" t="s">
         <v>22</v>
       </c>
@@ -22965,8 +22961,8 @@
       <c r="D139" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E139" s="28"/>
-      <c r="F139" s="40" t="s">
+      <c r="E139" s="39"/>
+      <c r="F139" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G139" s="13" t="s">
@@ -22996,8 +22992,8 @@
       <c r="D140" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E140" s="28"/>
-      <c r="F140" s="40"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="41"/>
       <c r="G140" s="13" t="s">
         <v>275</v>
       </c>
@@ -23025,8 +23021,8 @@
       <c r="D141" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E141" s="28"/>
-      <c r="F141" s="40"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="41"/>
       <c r="G141" s="13" t="s">
         <v>274</v>
       </c>
@@ -23054,8 +23050,8 @@
       <c r="D142" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E142" s="28"/>
-      <c r="F142" s="40"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="41"/>
       <c r="G142" s="13" t="s">
         <v>272</v>
       </c>
@@ -23083,8 +23079,8 @@
       <c r="D143" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="40"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="41"/>
       <c r="G143" s="13" t="s">
         <v>270</v>
       </c>
@@ -23132,22 +23128,57 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B145" s="41" t="s">
+      <c r="B145" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="C145" s="42"/>
-      <c r="D145" s="42"/>
-      <c r="E145" s="42"/>
-      <c r="F145" s="42"/>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
-      <c r="K145" s="42"/>
-      <c r="L145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="43"/>
+      <c r="K145" s="43"/>
+      <c r="L145" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E33:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:E57"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E75:E85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="B87:L87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="B101:L101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:E113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="B115:L115"/>
     <mergeCell ref="B145:L145"/>
     <mergeCell ref="E117:E128"/>
     <mergeCell ref="F124:F128"/>
@@ -23155,41 +23186,6 @@
     <mergeCell ref="E131:F131"/>
     <mergeCell ref="E132:E143"/>
     <mergeCell ref="F139:F143"/>
-    <mergeCell ref="B101:L101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="B115:L115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E75:E85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="B87:L87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:E99"/>
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E33:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:E57"/>
-    <mergeCell ref="F53:F57"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:E16"/>
-    <mergeCell ref="F11:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
